--- a/tests/fixtures/verification/cases/semantic/00022/00022-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/semantic/00022/00022-wc_lang.xlsx
@@ -9,9 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="29660" windowHeight="6700" tabRatio="500" firstSheet="6" activeTab="16"/>
-    <workbookView xWindow="1040" yWindow="7200" windowWidth="27760" windowHeight="6160" tabRatio="500" firstSheet="6" activeTab="10"/>
-    <workbookView xWindow="1020" yWindow="13400" windowWidth="27360" windowHeight="7960" tabRatio="500" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="29660" windowHeight="3780" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="820" yWindow="4360" windowWidth="27760" windowHeight="5540" tabRatio="500" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="780" yWindow="10180" windowWidth="27360" windowHeight="5200" tabRatio="500" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="20" yWindow="15560" windowWidth="28080" windowHeight="6040" tabRatio="500" firstSheet="7" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -4230,7 +4231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="214">
   <si>
     <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-12-05 16:22:38'</t>
   </si>
@@ -4805,9 +4806,6 @@
     <t>Volume of compartment c</t>
   </si>
   <si>
-    <t>c / density_c</t>
-  </si>
-  <si>
     <t>1 / (Avogadro * vol_c)</t>
   </si>
   <si>
@@ -4829,15 +4827,6 @@
     <t>molecule / mole</t>
   </si>
   <si>
-    <t>units</t>
-  </si>
-  <si>
-    <t>Units factor for both rate laws</t>
-  </si>
-  <si>
-    <t>test_case_00022</t>
-  </si>
-  <si>
     <t>Two reactions with two species in one compartment, with both reactions involving a non-integer stoichiometry.</t>
   </si>
   <si>
@@ -4853,19 +4842,37 @@
     <t>[c]: (0.7) S2 ==&gt; S1</t>
   </si>
   <si>
-    <t>Conversion factor for both rate laws</t>
-  </si>
-  <si>
-    <t>conv_22</t>
-  </si>
-  <si>
-    <t>conv_22 * k1 * S1[c] * vol_c * units</t>
-  </si>
-  <si>
-    <t>conv_22 * k2 * S2[c] * vol_c * units</t>
-  </si>
-  <si>
-    <t>Density compartment c</t>
+    <t>test_case_00022_pop_mass_independent</t>
+  </si>
+  <si>
+    <t>conv</t>
+  </si>
+  <si>
+    <t>Conversion factor for rate laws</t>
+  </si>
+  <si>
+    <t>Avogadro * rl_units_conv</t>
+  </si>
+  <si>
+    <t>k1 * S1[c] * pop_2_conc * vol_c * conv</t>
+  </si>
+  <si>
+    <t>k2 * S2[c] * pop_2_conc * vol_c * conv</t>
+  </si>
+  <si>
+    <t>Density compt. C</t>
+  </si>
+  <si>
+    <t>Must equal volume of c in Compartments</t>
+  </si>
+  <si>
+    <t>rl_units_conv</t>
+  </si>
+  <si>
+    <t>Units conversion</t>
+  </si>
+  <si>
+    <t>1 / molecule</t>
   </si>
 </sst>
 </file>
@@ -4944,10 +4951,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -5003,7 +5011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5098,18 +5106,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5148,6 +5144,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5456,6 +5467,7 @@
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5743,6 +5755,7 @@
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1"/>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5937,9 +5950,10 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="A3" sqref="A3:D4"/>
     </sheetView>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5996,17 +6010,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="A3" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>187</v>
+      <c r="D3" s="49" t="s">
+        <v>195</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -6015,16 +6029,16 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="A4" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>196</v>
       </c>
       <c r="E4" s="3"/>
@@ -6034,18 +6048,10 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>196</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -6133,7 +6139,8 @@
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="2"/>
+    <sheetView showRowColHeaders="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6166,13 +6173,13 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="47" t="s">
         <v>86</v>
       </c>
       <c r="J2" s="5"/>
@@ -6236,7 +6243,7 @@
         <v>154</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -6264,7 +6271,7 @@
         <v>154</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -6471,8 +6478,9 @@
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1"/>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="2">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6554,7 +6562,7 @@
         <v>172</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>180</v>
@@ -6577,7 +6585,7 @@
         <v>172</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>180</v>
@@ -6749,6 +6757,7 @@
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1"/>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7001,6 +7010,7 @@
     <sheetView workbookViewId="0"/>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1"/>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7222,6 +7232,7 @@
     <sheetView workbookViewId="0"/>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1"/>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7460,11 +7471,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1"/>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="3">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7574,7 +7588,7 @@
         <v>162</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="15">
@@ -7603,44 +7617,58 @@
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34">
-        <v>1</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35" t="s">
-        <v>197</v>
+      <c r="A7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="21" t="s">
+        <v>210</v>
+      </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="19"/>
+      <c r="D8" s="51">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>213</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -7716,6 +7744,7 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7909,6 +7938,7 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7950,42 +7980,42 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="47" t="s">
         <v>108</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="T2" s="50" t="s">
+      <c r="T2" s="47" t="s">
         <v>110</v>
       </c>
       <c r="U2" s="5"/>
@@ -8398,11 +8428,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRowColHeaders="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8433,7 +8464,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -8451,7 +8482,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -8682,6 +8713,7 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8828,6 +8860,7 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8860,10 +8893,10 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="47" t="s">
         <v>121</v>
       </c>
       <c r="I2" s="5"/>
@@ -9130,6 +9163,7 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9484,6 +9518,7 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9739,6 +9774,7 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10079,6 +10115,7 @@
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10226,6 +10263,7 @@
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10385,6 +10423,7 @@
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10564,11 +10603,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10609,29 +10649,29 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="47" t="s">
         <v>56</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="47" t="s">
         <v>57</v>
       </c>
       <c r="Q2" s="5"/>
@@ -10705,68 +10745,68 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:21" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40" t="s">
+      <c r="D4" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="39">
         <v>0.3</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="37">
         <v>0</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-    </row>
-    <row r="5" spans="1:21" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="41"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+    </row>
+    <row r="5" spans="1:21" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="38"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
     </row>
     <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -11032,6 +11072,7 @@
     </sheetView>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11062,22 +11103,22 @@
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="47" t="s">
         <v>69</v>
       </c>
       <c r="I2" s="5"/>
@@ -11155,7 +11196,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -11183,7 +11224,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -11366,6 +11407,7 @@
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11605,8 +11647,11 @@
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11669,71 +11714,71 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:12" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="46">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F3" s="47">
+      <c r="E3" s="43">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F3" s="44">
         <v>0</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-    </row>
-    <row r="4" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+    </row>
+    <row r="4" spans="1:12" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="42">
         <v>0</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="44">
         <v>0</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-    </row>
-    <row r="5" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+    </row>
+    <row r="5" spans="1:12" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>

--- a/tests/fixtures/verification/cases/semantic/00022/00022-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/semantic/00022/00022-wc_lang.xlsx
@@ -2965,7 +2965,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3197,7 +3197,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="22" t="n"/>
@@ -3424,7 +3424,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3817,7 +3817,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4131,7 +4131,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4410,7 +4410,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4654,7 +4654,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4923,7 +4923,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5250,7 +5250,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5476,7 +5476,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6015,7 +6015,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6345,7 +6345,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6518,7 +6518,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6862,7 +6862,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7267,7 +7267,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7561,7 +7561,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7940,7 +7940,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8119,7 +8119,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8306,7 +8306,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8525,7 +8525,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9035,7 +9035,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9413,7 +9413,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9686,7 +9686,7 @@
     <row r="1" ht="15" customHeight="1" s="35">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
